--- a/data/trans_camb/P1002-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.8359265650493497</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8882022409565773</v>
+        <v>0.888202240956576</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>10.06726411251634</v>
@@ -655,7 +655,7 @@
         <v>7.703044984242152</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>8.94816358354513</v>
+        <v>8.948163583545135</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.095787309657569</v>
@@ -664,7 +664,7 @@
         <v>4.043798836189885</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.691905814982631</v>
+        <v>5.691905814982634</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1243793518560742</v>
+        <v>0.07815205478622997</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.422239858323902</v>
+        <v>-3.392123515250888</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.013673028114832</v>
+        <v>-1.978755561068299</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.173022835419279</v>
+        <v>7.380835016601924</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.283346395319265</v>
+        <v>4.578079889625255</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.977062826434077</v>
+        <v>5.914453173131916</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.897424239479921</v>
+        <v>4.991716005544864</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.916166398023577</v>
+        <v>1.814314736431305</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.517350934476508</v>
+        <v>3.618181230863835</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.801681744534357</v>
+        <v>5.8630087174952</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.785636083052398</v>
+        <v>2.154369064891857</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.022340719497016</v>
+        <v>3.983165322355827</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.22805423478584</v>
+        <v>13.08304994588101</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.09509699454458</v>
+        <v>10.95876710959675</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.70819283165637</v>
+        <v>11.71699503722722</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.020004732195744</v>
+        <v>9.447698173290979</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.310532219604921</v>
+        <v>6.163686366738099</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.862626930692052</v>
+        <v>7.7393481626036</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.08344455551422492</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.08866286143087773</v>
+        <v>0.08866286143087759</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.7831518867467296</v>
@@ -760,7 +760,7 @@
         <v>0.5992347221330913</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.69609489877783</v>
+        <v>0.6960948987778305</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.6113069138143833</v>
@@ -769,7 +769,7 @@
         <v>0.3483760263322673</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4903615660440489</v>
+        <v>0.4903615660440491</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.008072026330988722</v>
+        <v>0.007566601105143854</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.301368377879534</v>
+        <v>-0.3053444450626815</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1760739521174397</v>
+        <v>-0.1874288472142044</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.5054077484954781</v>
+        <v>0.5260184617205438</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.308094880338552</v>
+        <v>0.3133978317991056</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4202408828148385</v>
+        <v>0.4105859394773641</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3902410806289976</v>
+        <v>0.4004329161109395</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1510730247024439</v>
+        <v>0.1501936453200167</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2764676841837256</v>
+        <v>0.2894461151615834</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6640402566430268</v>
+        <v>0.6932662578636559</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1994635227655281</v>
+        <v>0.2361506695476236</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4581526797064654</v>
+        <v>0.428222820610198</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.144717271433366</v>
+        <v>1.144806639780234</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9445267407571423</v>
+        <v>0.9256691182566841</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.024725644398626</v>
+        <v>1.014443884325502</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8332346099392132</v>
+        <v>0.8826216434785333</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5733934854827062</v>
+        <v>0.5732231343828336</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7247332142585953</v>
+        <v>0.7243894784596506</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.849121348078747</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.255027104311779</v>
+        <v>2.255027104311781</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.479025053677259</v>
@@ -878,7 +878,7 @@
         <v>1.691201207927809</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.041341910019885</v>
+        <v>2.041341910019887</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.593773374406196</v>
+        <v>0.460889210368808</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6197806373218917</v>
+        <v>0.557160797905105</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.01275090994544</v>
+        <v>1.011908090556417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.616560989498278</v>
+        <v>1.626974268230832</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.342316944780298</v>
+        <v>-0.08155852647461449</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1580967761158449</v>
+        <v>0.1935728054828119</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.354950248858427</v>
+        <v>1.278426271309765</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5397550348845968</v>
+        <v>0.5868922352995861</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.012638650442226</v>
+        <v>1.065862965214459</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.033500628322144</v>
+        <v>3.016313668336072</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.05098049044847</v>
+        <v>3.137637358657594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.585208536777996</v>
+        <v>3.592295472878253</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.301241290719795</v>
+        <v>5.344960100934633</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.236855476960074</v>
+        <v>3.328733451524085</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.380008154663174</v>
+        <v>3.439952842387766</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.640406479697305</v>
+        <v>3.528058750809851</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.764547897758163</v>
+        <v>2.854555706925716</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.028730331138306</v>
+        <v>3.103752751300791</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.6653328934949643</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.8113819624548689</v>
+        <v>0.8113819624548694</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5794331909230566</v>
@@ -983,7 +983,7 @@
         <v>0.3897002001319398</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4703824400924997</v>
+        <v>0.4703824400925</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1585042581864717</v>
+        <v>0.1283848136083694</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1656483697531358</v>
+        <v>0.1380626771847731</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2928727718962738</v>
+        <v>0.2573144563473359</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2302392603401154</v>
+        <v>0.2314413255683028</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05068388091517571</v>
+        <v>-0.02143004472741072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01268529089333957</v>
+        <v>0.02864198044079152</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2855716121251357</v>
+        <v>0.2586006191891055</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1112003931732505</v>
+        <v>0.1035445240159144</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2112883291249141</v>
+        <v>0.2102744536604756</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.333131350867721</v>
+        <v>1.36793035741253</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.395731049339769</v>
+        <v>1.411637053662784</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.664262295955183</v>
+        <v>1.655788632700186</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.025238544229529</v>
+        <v>1.027127857733518</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6114383490976596</v>
+        <v>0.6366074588401114</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6424989699034946</v>
+        <v>0.6750581314973917</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9653784270193094</v>
+        <v>0.9194476542259313</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7239680086744086</v>
+        <v>0.7463536136447402</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7907361535251236</v>
+        <v>0.8054860789703669</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.7144331335849112</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1204054949802531</v>
+        <v>0.1204054949802517</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.08853437665334238</v>
@@ -1092,7 +1092,7 @@
         <v>-0.4312999781357948</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.444897686059452</v>
+        <v>1.444897686059451</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.052683324265148</v>
+        <v>-2.814480781433075</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.365992300205028</v>
+        <v>-2.874036579893955</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.26664448747371</v>
+        <v>-2.225642055007881</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.888705272755064</v>
+        <v>-2.67090965401681</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.76129843249905</v>
+        <v>-2.671240460166755</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.1108914394055592</v>
+        <v>-0.09503270453628267</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.951694521443941</v>
+        <v>-2.027263511633431</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.341796328939175</v>
+        <v>-2.007421975427822</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.5352992156993559</v>
+        <v>-0.4860999593464687</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.882472966171046</v>
+        <v>2.240907026945583</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.468335407452343</v>
+        <v>1.676410467120957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.309641187904985</v>
+        <v>2.346208924279668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.716186745114297</v>
+        <v>3.07411113871084</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.353838532028851</v>
+        <v>2.356852155030242</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.388599250839827</v>
+        <v>5.304788688102401</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.760192194747769</v>
+        <v>1.79152929879117</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.252547631171559</v>
+        <v>1.379710025258223</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.044829404345094</v>
+        <v>3.167603734937573</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1958507425255256</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.03300729555711925</v>
+        <v>0.03300729555711887</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.01880676575099614</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1042026379833425</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3490891679480163</v>
+        <v>0.3490891679480161</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6614475084857762</v>
+        <v>-0.6362560227514573</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6682277590944041</v>
+        <v>-0.6183068462725814</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4484826085085674</v>
+        <v>-0.4750600301214413</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4873879326805381</v>
+        <v>-0.4785610836259446</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4464358816573122</v>
+        <v>-0.4407564647920056</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02749390705734634</v>
+        <v>-0.01652580312801264</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4120930645793961</v>
+        <v>-0.4185522166793303</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4518315315893969</v>
+        <v>-0.410412292666153</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1013004591083759</v>
+        <v>-0.08384822529587506</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7614758279630337</v>
+        <v>0.9190939892962497</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5923090429946587</v>
+        <v>0.6849235220339196</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9086285010711616</v>
+        <v>0.974309915485297</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8534760107411098</v>
+        <v>0.8783101403429291</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6871794204986662</v>
+        <v>0.687091671840528</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.716427700443425</v>
+        <v>1.712240625914696</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5656293431452822</v>
+        <v>0.5530374578004575</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4109338579410262</v>
+        <v>0.4307718702371814</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9812314434366656</v>
+        <v>0.958944034200654</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>2.21753601955995</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.284561947285649</v>
+        <v>2.284561947285646</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.528296571561369</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.313915585551745</v>
+        <v>0.3600045512883753</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9335229231322375</v>
+        <v>-0.9254361238646803</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6422573571128285</v>
+        <v>-0.4484376286323261</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.92670483402818</v>
+        <v>3.934578975425122</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6720466050023221</v>
+        <v>0.7938666322908874</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9131372652802174</v>
+        <v>0.9381210161049404</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.517931408779551</v>
+        <v>2.58276560302971</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2686716037483323</v>
+        <v>0.321942846638112</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5397866954289064</v>
+        <v>0.5846295385085372</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.879829410212012</v>
+        <v>2.704146426640294</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.314888486032679</v>
+        <v>1.292873168475581</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.724752642506802</v>
+        <v>1.568393666956583</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.931980827278326</v>
+        <v>6.922278844549703</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.679891961548767</v>
+        <v>3.601244911279091</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.661203060443032</v>
+        <v>3.420809766497605</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.453065606608448</v>
+        <v>4.579161677220635</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.222849074874445</v>
+        <v>2.124721998544137</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.278593409931927</v>
+        <v>2.316099423013215</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.2612707222503029</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2691677360493685</v>
+        <v>0.2691677360493682</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.513474692517406</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.06212305433202318</v>
+        <v>0.06403018961045191</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1608414923690926</v>
+        <v>-0.1585723053160122</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1086575790672102</v>
+        <v>-0.07831057874539277</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.413028768147663</v>
+        <v>0.4258341300317484</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07530556835089043</v>
+        <v>0.08542087667724173</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1015876876445891</v>
+        <v>0.09539419066382916</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3418432950194761</v>
+        <v>0.359141227717314</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03676165202430062</v>
+        <v>0.04335253613705841</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.07058435124322801</v>
+        <v>0.08565867322506292</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6278913410099352</v>
+        <v>0.5856246908493725</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2892141567123249</v>
+        <v>0.2668720734066454</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3688754007032702</v>
+        <v>0.3338315278748059</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8721872915862076</v>
+        <v>0.8859842320911604</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4608041118027156</v>
+        <v>0.4679772088454615</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4736564455834572</v>
+        <v>0.4380362321713094</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6959598305008422</v>
+        <v>0.726262963999923</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3504165409491297</v>
+        <v>0.3291208378748717</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3521163377246335</v>
+        <v>0.3576424160853475</v>
       </c>
     </row>
     <row r="28">
